--- a/config_portal/examples/obj-files.xlsx
+++ b/config_portal/examples/obj-files.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlabyer/Projects/HuBMAP-pancreas-data-explorer/HuBMAP-pancreas-data-explorer/config_portal/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlabyer/Projects/tde-test/tissue-data-explorer/config_portal/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038A3DD6-9A07-BD4C-AD15-86BB1DF7BE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190894AD-5170-034C-B555-61BFDB4E3FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{3D5C0E23-C149-624D-A4EA-1CF568E3B69C}"/>
+    <workbookView xWindow="5580" yWindow="1300" windowWidth="27640" windowHeight="16940" xr2:uid="{3D5C0E23-C149-624D-A4EA-1CF568E3B69C}"/>
   </bookViews>
   <sheets>
     <sheet name="files" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Body</t>
   </si>
@@ -44,51 +44,9 @@
     <t>#EC8728</t>
   </si>
   <si>
-    <t>Neck</t>
-  </si>
-  <si>
-    <t>#EF9846</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>#F6AA63</t>
-  </si>
-  <si>
-    <t>Tail</t>
-  </si>
-  <si>
-    <t>#ED780B</t>
-  </si>
-  <si>
-    <t>P1-4A</t>
-  </si>
-  <si>
     <t>#067BC2</t>
   </si>
   <si>
-    <t>P1-7A</t>
-  </si>
-  <si>
-    <t>P1-9</t>
-  </si>
-  <si>
-    <t>P1-14A</t>
-  </si>
-  <si>
-    <t>P1-19A</t>
-  </si>
-  <si>
-    <t>P1-20C</t>
-  </si>
-  <si>
-    <t>P1-21</t>
-  </si>
-  <si>
-    <t>P1-4A proteomics subsection</t>
-  </si>
-  <si>
     <t>Organ</t>
   </si>
   <si>
@@ -104,43 +62,58 @@
     <t>Opacity</t>
   </si>
   <si>
-    <t>body_invert.obj</t>
-  </si>
-  <si>
-    <t>neck_invert.obj</t>
-  </si>
-  <si>
-    <t>head_invert.obj</t>
-  </si>
-  <si>
-    <t>tail_invert.obj</t>
-  </si>
-  <si>
-    <t>P1_Pancreas_Head_4A.obj</t>
-  </si>
-  <si>
-    <t>P1_Pancreas_Neck_7A.obj</t>
-  </si>
-  <si>
-    <t>P1_Pancreas_Neck_9.obj</t>
-  </si>
-  <si>
-    <t>P1_Pancreas_Body_14A.obj</t>
-  </si>
-  <si>
-    <t>P1_Pancreas_Tail_19A.obj</t>
-  </si>
-  <si>
-    <t>P1_Pancreas_Tail_20C.obj</t>
-  </si>
-  <si>
-    <t>P1_Pancreas_Tail_21.obj</t>
-  </si>
-  <si>
-    <t>P1_20c_subselection.obj</t>
-  </si>
-  <si>
-    <t>P1</t>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>sphere.obj</t>
+  </si>
+  <si>
+    <t>S1-1</t>
+  </si>
+  <si>
+    <t>S1_Sphere_Lower_S1-1.obj</t>
+  </si>
+  <si>
+    <t>S1-4</t>
+  </si>
+  <si>
+    <t>S1_Sphere_Lower_S1-4.obj</t>
+  </si>
+  <si>
+    <t>S1-6</t>
+  </si>
+  <si>
+    <t>S1_Sphere_Middle_S1-6.obj</t>
+  </si>
+  <si>
+    <t>S1-7</t>
+  </si>
+  <si>
+    <t>S1_Sphere_Middle_S1-7.obj</t>
+  </si>
+  <si>
+    <t>S1-9</t>
+  </si>
+  <si>
+    <t>S1_Sphere_Middle_S1-9.obj</t>
+  </si>
+  <si>
+    <t>S1-12</t>
+  </si>
+  <si>
+    <t>S1_Sphere_Middle_S1-12.obj</t>
+  </si>
+  <si>
+    <t>S1-14</t>
+  </si>
+  <si>
+    <t>S1_Sphere_Upper_S1-14.obj</t>
+  </si>
+  <si>
+    <t>S1-15</t>
+  </si>
+  <si>
+    <t>S1_Sphere_Upper_S1-15.obj</t>
   </si>
 </sst>
 </file>
@@ -512,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A2B076-C05F-964F-BD37-33F7D597451D}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,30 +499,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -560,67 +533,67 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0.6</v>
@@ -628,16 +601,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0.6</v>
@@ -645,16 +618,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0.6</v>
@@ -662,16 +635,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0.6</v>
@@ -679,69 +652,18 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
         <v>0.6</v>
       </c>
     </row>

--- a/config_portal/examples/obj-files.xlsx
+++ b/config_portal/examples/obj-files.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlabyer/Projects/tde-test/tissue-data-explorer/config_portal/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlabyer/Projects/tissue-data-explorer/config_portal/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190894AD-5170-034C-B555-61BFDB4E3FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3BA79F-3493-5C4C-98B6-3EC1CE3A82F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="1300" windowWidth="27640" windowHeight="16940" xr2:uid="{3D5C0E23-C149-624D-A4EA-1CF568E3B69C}"/>
   </bookViews>
   <sheets>
     <sheet name="files" sheetId="1" r:id="rId1"/>
+    <sheet name="notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>Body</t>
   </si>
@@ -114,18 +115,51 @@
   </si>
   <si>
     <t>S1_Sphere_Upper_S1-15.obj</t>
+  </si>
+  <si>
+    <t>x axis</t>
+  </si>
+  <si>
+    <t>y axis</t>
+  </si>
+  <si>
+    <t>z axis</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Plotly Dash Coordinate Axes</t>
+  </si>
+  <si>
+    <t>The Plotly Dash 3d surface capability displays data using a right-handed coordinate system with the z axis extending in the vertical direction. 
+If you want to display your data differently, you can map the axes in your data to Plotly's axes using the vector columns in the files tab. This will cause the data to be labelled according to Plotly's axes labelling. So if you map your z axis to Plotly's y axis, it will be labelled as the y axis in the resulting plot.
+Valid mapping values are x, y, and z.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -149,8 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A2B076-C05F-964F-BD37-33F7D597451D}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,7 +535,7 @@
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -513,8 +551,17 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -530,8 +577,17 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -547,8 +603,17 @@
       <c r="E3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -564,8 +629,17 @@
       <c r="E4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -581,8 +655,17 @@
       <c r="E5">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -598,8 +681,17 @@
       <c r="E6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -615,8 +707,17 @@
       <c r="E7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -632,8 +733,17 @@
       <c r="E8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -649,8 +759,17 @@
       <c r="E9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -665,6 +784,43 @@
       </c>
       <c r="E10">
         <v>0.6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E3002E-10AA-BF43-B973-3F5A526C5CB5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="63.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
